--- a/hardware/docs/STM32F303_LQFP64_PinAssignment.xlsx
+++ b/hardware/docs/STM32F303_LQFP64_PinAssignment.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E09D1E5-AB35-4E5C-9B37-C3C0A40921D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="22080" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,8 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,15 +369,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +398,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +464,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -476,18 +473,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -495,7 +486,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -503,14 +493,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -518,48 +500,58 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,16 +573,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>239389</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16649</xdr:rowOff>
+      <xdr:colOff>353689</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -613,8 +605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6370320" y="990600"/>
-          <a:ext cx="5123809" cy="3971429"/>
+          <a:off x="5888355" y="830580"/>
+          <a:ext cx="5123809" cy="4129544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,760 +880,762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="33">
         <v>43573</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+    <row r="21" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="32">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="32">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="32">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="39"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="C51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="C52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="C53" s="32"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="C54" s="32"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
+      <c r="C55" s="32"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="32">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="35"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+      <c r="D57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
+      <c r="C58" s="32"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="32">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="35"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="C62" s="32"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+      <c r="C63" s="32"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="8" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
